--- a/scripts/vintages/legenda.xlsx
+++ b/scripts/vintages/legenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.martins\Dropbox\Tiago\ArtigoBR\scripts\vintages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiane.mattos\Dropbox\Tiago\ArtigoBR\scripts\vintages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Legenda" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Legenda!$A$1:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Legenda!$A$1:$J$133</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3249,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3755,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -4535,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4883,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="J95" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="J96" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4979,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="J97" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="J98" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5075,7 +5075,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="J101" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5203,7 +5203,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -5267,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="J106" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5299,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="J107" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -6069,7 +6069,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J128"/>
+  <autoFilter ref="A1:J133"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/scripts/vintages/legenda.xlsx
+++ b/scripts/vintages/legenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiane.mattos\Dropbox\Tiago\ArtigoBR\scripts\vintages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.martins\Dropbox\Tiago\ArtigoBR\scripts\vintages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1491,9 +1491,6 @@
     <t>IES</t>
   </si>
   <si>
-    <t>AGROPECUÁRIA</t>
-  </si>
-  <si>
     <t>INDÚSTRIA</t>
   </si>
   <si>
@@ -1506,19 +1503,22 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>IAE_AGRO</t>
-  </si>
-  <si>
-    <t>IAE_IND</t>
-  </si>
-  <si>
-    <t>IAE_SERV</t>
-  </si>
-  <si>
-    <t>IAE_IMP</t>
-  </si>
-  <si>
     <t>IAE</t>
+  </si>
+  <si>
+    <t>indicador de atividade economica AGROPECUÁRIA</t>
+  </si>
+  <si>
+    <t>IAEAGRO</t>
+  </si>
+  <si>
+    <t>IAEIND</t>
+  </si>
+  <si>
+    <t>IAESERV</t>
+  </si>
+  <si>
+    <t>IAEIMP</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C129" t="s">
         <v>125</v>
@@ -5952,7 +5952,7 @@
         <v>36161</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H129" t="s">
         <v>140</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C130" t="s">
         <v>125</v>
@@ -5978,7 +5978,7 @@
         <v>36312</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H130" t="s">
         <v>140</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C131" t="s">
         <v>125</v>
@@ -6004,7 +6004,7 @@
         <v>36557</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H131" t="s">
         <v>140</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C132" t="s">
         <v>125</v>
@@ -6030,7 +6030,7 @@
         <v>36617</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H132" t="s">
         <v>140</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C133" t="s">
         <v>125</v>
@@ -6056,7 +6056,7 @@
         <v>36647</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H133" t="s">
         <v>140</v>
